--- a/San_Antonio_Spurs_2025-26_stats.xlsx
+++ b/San_Antonio_Spurs_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1990,7 +1994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,193 +2005,763 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jordan McLaughlin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Stephon Castle</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Kelly Olynyk</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jeremy Sochan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Carter Bryant</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bismack Biyombo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Devin Vassell</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>David Jones Garcia</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Champagnie</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lindy Waters III</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Harrison Ingram</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.7</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22.5</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>18.5</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dylan Harper</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.8</v>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.9</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10.66666666666667</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Julian Champagnie</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9.5</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lindy Waters III</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jordan McLaughlin</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>David Jones Garcia</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Riley Minix</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Carter Bryant</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.428571428571428</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Kelly Olynyk</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Harrison Ingram</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Bismack Biyombo</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.4</v>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2196,6 +2770,787 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jordan McLaughlin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Stephon Castle</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Kelly Olynyk</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jeremy Sochan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Carter Bryant</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bismack Biyombo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Devin Vassell</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>David Jones Garcia</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Champagnie</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lindy Waters III</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Harrison Ingram</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2217,13 +3572,224 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stephon Castle</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Devin Vassell</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Julian Champagnie</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jeremy Sochan</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lindy Waters III</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jordan McLaughlin</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>David Jones Garcia</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Carter Bryant</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kelly Olynyk</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Harrison Ingram</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bismack Biyombo</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Stephon Castle</t>
         </is>
       </c>
@@ -2395,6 +3961,428 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>Harrison Ingram</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stephon Castle</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Julian Champagnie</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Devin Vassell</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jeremy Sochan</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kelly Olynyk</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Harrison Ingram</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bismack Biyombo</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David Jones Garcia</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lindy Waters III</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Carter Bryant</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jordan McLaughlin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Devin Vassell</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Julian Champagnie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lindy Waters III</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stephon Castle</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jordan McLaughlin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Riley Minix</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Harrison Ingram</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Carter Bryant</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jeremy Sochan</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>David Jones Garcia</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bismack Biyombo</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kelly Olynyk</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B19" t="n">

--- a/San_Antonio_Spurs_2025-26_stats.xlsx
+++ b/San_Antonio_Spurs_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,6 +1200,72 @@
         <v>3</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1213,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,6 +2047,72 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2761,6 +2894,72 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,7 +2974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,6 +3741,72 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +3848,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.7</v>
+        <v>26.18181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -3593,7 +3858,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.5</v>
+        <v>19.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -3603,7 +3868,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.5</v>
+        <v>18.90909090909091</v>
       </c>
     </row>
     <row r="5">
@@ -3623,27 +3888,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.8</v>
+        <v>13.90909090909091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>11.81818181818182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>11.45454545454546</v>
       </c>
     </row>
     <row r="9">
@@ -3653,7 +3918,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.66666666666667</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -3663,7 +3928,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.5</v>
+        <v>9.181818181818182</v>
       </c>
     </row>
     <row r="11">
@@ -3673,27 +3938,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3794,7 +4059,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.7</v>
+        <v>7.909090909090909</v>
       </c>
     </row>
     <row r="3">
@@ -3804,27 +4069,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dylan Harper</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Dylan Harper</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.4</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -3834,7 +4099,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -3844,7 +4109,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.3</v>
+        <v>2.090909090909091</v>
       </c>
     </row>
     <row r="8">
@@ -3854,47 +4119,47 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.7</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.666666666666667</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Julian Champagnie</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Julian Champagnie</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13">
@@ -3924,7 +4189,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -4005,27 +4270,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.666666666666667</v>
+        <v>6.090909090909091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="5">
@@ -4035,7 +4300,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>5.727272727272728</v>
       </c>
     </row>
     <row r="6">
@@ -4045,7 +4310,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.3</v>
+        <v>5.090909090909091</v>
       </c>
     </row>
     <row r="7">
@@ -4061,21 +4326,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="10">
@@ -4085,7 +4350,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.8</v>
+        <v>2.727272727272727</v>
       </c>
     </row>
     <row r="11">
@@ -4095,7 +4360,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
@@ -4141,21 +4406,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Carter Bryant</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carter Bryant</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -4216,7 +4481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.7</v>
+        <v>2.818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -4226,7 +4491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.5</v>
+        <v>2.545454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -4236,47 +4501,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4296,7 +4561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="11">
@@ -4312,17 +4577,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Harrison Ingram</t>
+          <t>Riley Minix</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4332,21 +4597,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carter Bryant</t>
+          <t>Harrison Ingram</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Carter Bryant</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16">
@@ -4387,6 +4652,283 @@
       </c>
       <c r="B19" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92</v>
+      </c>
+      <c r="E2" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116</v>
+      </c>
+      <c r="E3" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>118</v>
+      </c>
+      <c r="D7" t="n">
+        <v>130</v>
+      </c>
+      <c r="E7" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>118</v>
+      </c>
+      <c r="E8" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D9" t="n">
+        <v>110</v>
+      </c>
+      <c r="E9" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>119</v>
+      </c>
+      <c r="E10" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>117</v>
+      </c>
+      <c r="E11" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>120</v>
+      </c>
+      <c r="D12" t="n">
+        <v>125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
